--- a/base-llm/open-source/mixtral-8-7b/BrazilianE-commerce/ontology_URIs.xlsx
+++ b/base-llm/open-source/mixtral-8-7b/BrazilianE-commerce/ontology_URIs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\OntoGenixLLMExperiments\base-llm\mixtral-8-7b\BrazilianE-commerce\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\OntoGenixLLMExperiments\base-llm\open-source\mixtral-8-7b\BrazilianE-commerce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A2B19B-84FF-42D1-B81A-FDF8EEAF646F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25667F30-9F26-41D0-8EDE-19EC0842D456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URIs" sheetId="2" r:id="rId1"/>
@@ -162,10 +162,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -449,7 +448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0781F14-634B-4B27-B2D0-BBF35E98DF2C}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -541,7 +540,7 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -552,7 +551,7 @@
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -563,7 +562,7 @@
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -574,7 +573,7 @@
       <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -585,7 +584,7 @@
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -608,9 +607,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -689,6 +688,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{F780FABD-847F-4D09-AE78-82D957F98722}"/>
